--- a/bi-backend/src/main/resources/网站数据.xlsx
+++ b/bi-backend/src/main/resources/网站数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data\MyProjects\BI\bi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454CE613-B2BE-4BC6-9B1A-71D79893F036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A03CDF-8CFF-40DE-A7DD-EFAB5F54F170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="5400" windowWidth="28800" windowHeight="15600" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="12165" yWindow="3645" windowWidth="28800" windowHeight="15600" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>用户数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,6 +73,60 @@
   </si>
   <si>
     <t>2023.10.19</t>
+  </si>
+  <si>
+    <t>2023.10.20</t>
+  </si>
+  <si>
+    <t>2023.10.21</t>
+  </si>
+  <si>
+    <t>2023.10.22</t>
+  </si>
+  <si>
+    <t>2023.10.23</t>
+  </si>
+  <si>
+    <t>2023.10.24</t>
+  </si>
+  <si>
+    <t>2023.10.25</t>
+  </si>
+  <si>
+    <t>2023.10.26</t>
+  </si>
+  <si>
+    <t>2023.10.27</t>
+  </si>
+  <si>
+    <t>2023.10.28</t>
+  </si>
+  <si>
+    <t>2023.10.29</t>
+  </si>
+  <si>
+    <t>2023.10.30</t>
+  </si>
+  <si>
+    <t>2023.10.31</t>
+  </si>
+  <si>
+    <t>2023.10.32</t>
+  </si>
+  <si>
+    <t>2023.10.33</t>
+  </si>
+  <si>
+    <t>2023.10.34</t>
+  </si>
+  <si>
+    <t>2023.10.35</t>
+  </si>
+  <si>
+    <t>2023.10.36</t>
+  </si>
+  <si>
+    <t>2023.10.37</t>
   </si>
 </sst>
 </file>
@@ -463,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="23.25"/>
@@ -573,6 +627,150 @@
       </c>
       <c r="D11"/>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>54847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>74845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4512121</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
